--- a/data/trans_dic/P64D$otros_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P64D$otros_2023-Clase-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.01455495288257892</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.004517249879668528</v>
+        <v>0.004517249879668529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.009853269053202385</v>
+        <v>0.009853269053202383</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003607029821173093</v>
+        <v>0.003762793234700546</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00376481512153116</v>
+        <v>0.003859580695426664</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03547506046856953</v>
+        <v>0.03632251157398081</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0227142711226751</v>
+        <v>0.02261526051592856</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02059971304137297</v>
+        <v>0.02203824913198716</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.007931709876261657</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.005124157896681279</v>
+        <v>0.005124157896681278</v>
       </c>
     </row>
     <row r="8">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001199268641738802</v>
+        <v>0.001442791288471972</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01488053614145187</v>
+        <v>0.01335237065400746</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03271619634427111</v>
+        <v>0.02931825502279397</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01592643471749315</v>
+        <v>0.01615120248969008</v>
       </c>
     </row>
     <row r="10">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03397201959272936</v>
+        <v>0.02586046268110434</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.02166012542696829</v>
+        <v>0.02002021664047061</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005005204914899026</v>
+        <v>0.005244422144311595</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006022516300507594</v>
+        <v>0.00637384288461012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007360006360461007</v>
+        <v>0.007478854915239907</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02399928246479121</v>
+        <v>0.02649512992714557</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03324912503469239</v>
+        <v>0.03532538788426406</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02367388430181755</v>
+        <v>0.02257274407868069</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.004364324865121618</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.009746803153174723</v>
+        <v>0.009746803153174721</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005152490584375178</v>
+        <v>0.00378486550476915</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004087850097428542</v>
+        <v>0.003416871142268239</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04152582906813684</v>
+        <v>0.0413548660815022</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01425554384025989</v>
+        <v>0.01347883527039128</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02309434249273921</v>
+        <v>0.02059149837587232</v>
       </c>
     </row>
     <row r="19">
@@ -838,10 +838,10 @@
         <v>0.01048970542087131</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.008377379562957914</v>
+        <v>0.008377379562957912</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.009565778483949681</v>
+        <v>0.009565778483949679</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006186821983106577</v>
+        <v>0.006370221046040065</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.004481168635394517</v>
+        <v>0.00417269066126359</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006369902848004337</v>
+        <v>0.006688742032514473</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01619357560735974</v>
+        <v>0.01666263103292648</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01621834053588941</v>
+        <v>0.01512406154791002</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01355361794909531</v>
+        <v>0.0148340293264262</v>
       </c>
     </row>
     <row r="22">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1344</v>
+        <v>1402</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2638</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="7">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13215</v>
+        <v>13531</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7456</v>
+        <v>7423</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14435</v>
+        <v>15443</v>
       </c>
     </row>
     <row r="8">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>706</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4726</v>
+        <v>4241</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8870</v>
+        <v>7948</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9376</v>
+        <v>9508</v>
       </c>
     </row>
     <row r="12">
@@ -1177,11 +1177,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9125</v>
+        <v>6946</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>7587</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="16">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3082</v>
+        <v>3229</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2855</v>
+        <v>3022</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8021</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="19">
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14776</v>
+        <v>16313</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15763</v>
+        <v>16747</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25799</v>
+        <v>24599</v>
       </c>
     </row>
     <row r="20">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1578</v>
+        <v>1159</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2506</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="23">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12714</v>
+        <v>12661</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4376</v>
+        <v>4137</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14160</v>
+        <v>12625</v>
       </c>
     </row>
     <row r="24">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11635</v>
+        <v>11980</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6552</v>
+        <v>6101</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21292</v>
+        <v>22358</v>
       </c>
     </row>
     <row r="27">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>30453</v>
+        <v>31335</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23712</v>
+        <v>22112</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>45305</v>
+        <v>49585</v>
       </c>
     </row>
     <row r="28">
